--- a/Due Slips/receipt language.xlsx
+++ b/Due Slips/receipt language.xlsx
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,355 +2682,355 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="117" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="118" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="119" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="120" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="1" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3100,234 +3100,234 @@
         <v>253</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+    <row r="127" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="128" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+    <row r="129" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+    <row r="130" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+    <row r="131" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+    <row r="132" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="133" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+    <row r="134" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+    <row r="135" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="136" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="137" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="138" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="139" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="140" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="141" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="142" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="143" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="144" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="145" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="146" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="147" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3338,6 +3338,14 @@
     <hyperlink ref="C53" r:id="rId3"/>
     <hyperlink ref="C60" r:id="rId4"/>
     <hyperlink ref="C75" r:id="rId5"/>
+    <hyperlink ref="C98" r:id="rId6"/>
+    <hyperlink ref="C100" r:id="rId7"/>
+    <hyperlink ref="C102" r:id="rId8"/>
+    <hyperlink ref="C110" r:id="rId9"/>
+    <hyperlink ref="C118" r:id="rId10"/>
+    <hyperlink ref="C128" r:id="rId11"/>
+    <hyperlink ref="C138" r:id="rId12"/>
+    <hyperlink ref="C142" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Due Slips/receipt language.xlsx
+++ b/Due Slips/receipt language.xlsx
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C139" sqref="C139"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,181 +1965,181 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3034,69 +3034,69 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+    <row r="121" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="122" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+    <row r="123" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+    <row r="124" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+    <row r="125" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="126" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="1" t="s">
         <v>253</v>
       </c>
     </row>

--- a/Due Slips/receipt language.xlsx
+++ b/Due Slips/receipt language.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="291">
   <si>
     <t>name</t>
   </si>
@@ -886,6 +886,12 @@
   </si>
   <si>
     <t>508-358-2308  www.waylandlibrary.org</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>uploaded</t>
   </si>
 </sst>
 </file>
@@ -1710,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1729,7 @@
     <col min="3" max="3" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1733,8 +1739,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1744,8 +1753,11 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1755,8 +1767,11 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1766,8 +1781,11 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1777,8 +1795,11 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1788,8 +1809,11 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1799,8 +1823,11 @@
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1810,8 +1837,11 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1821,8 +1851,11 @@
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1832,8 +1865,11 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1843,8 +1879,11 @@
       <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1854,8 +1893,11 @@
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1865,8 +1907,11 @@
       <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -1876,8 +1921,11 @@
       <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1887,8 +1935,11 @@
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -2075,7 +2126,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
@@ -2086,12 +2137,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
@@ -2102,7 +2153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -2113,7 +2164,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
@@ -2124,7 +2175,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
@@ -2132,7 +2183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>84</v>
       </c>
@@ -2143,7 +2194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
@@ -2154,7 +2205,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
@@ -2165,7 +2216,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>91</v>
       </c>
@@ -2176,7 +2227,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>93</v>
       </c>
@@ -2187,7 +2238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
@@ -2197,8 +2248,11 @@
       <c r="C44" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -2208,8 +2262,11 @@
       <c r="C45" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
@@ -2219,8 +2276,11 @@
       <c r="C46" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>102</v>
       </c>
@@ -2230,8 +2290,11 @@
       <c r="C47" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>103</v>
       </c>
@@ -2418,7 +2481,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>133</v>
       </c>
@@ -2429,7 +2492,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>136</v>
       </c>
@@ -2440,7 +2503,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -2451,7 +2514,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>140</v>
       </c>
@@ -2462,7 +2525,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -2473,7 +2536,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -2483,8 +2546,11 @@
       <c r="C70" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>145</v>
       </c>
@@ -2494,8 +2560,11 @@
       <c r="C71" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>146</v>
       </c>
@@ -2505,8 +2574,11 @@
       <c r="C72" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
@@ -2517,7 +2589,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>150</v>
       </c>
@@ -2528,7 +2600,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>151</v>
       </c>
@@ -2539,7 +2611,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>154</v>
       </c>
@@ -2550,7 +2622,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>155</v>
       </c>
@@ -2561,7 +2633,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>158</v>
       </c>
@@ -2572,7 +2644,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>159</v>
       </c>
@@ -2583,7 +2655,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>162</v>
       </c>
@@ -2594,7 +2666,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>165</v>
       </c>
@@ -2605,7 +2677,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>166</v>
       </c>
@@ -2616,7 +2688,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>169</v>
       </c>
@@ -2627,7 +2699,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>170</v>
       </c>
@@ -2638,7 +2710,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>173</v>
       </c>
@@ -2649,7 +2721,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>174</v>
       </c>
@@ -2660,7 +2732,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>175</v>
       </c>
@@ -2671,7 +2743,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>176</v>
       </c>
@@ -2682,7 +2754,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>177</v>
       </c>
@@ -2693,7 +2765,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>180</v>
       </c>
@@ -2704,7 +2776,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>183</v>
       </c>
@@ -2715,7 +2787,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>186</v>
       </c>
@@ -2726,7 +2798,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>189</v>
       </c>
@@ -2737,7 +2809,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>190</v>
       </c>
@@ -2747,8 +2819,11 @@
       <c r="C94" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>193</v>
       </c>
@@ -2758,8 +2833,11 @@
       <c r="C95" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>195</v>
       </c>
@@ -2769,8 +2847,11 @@
       <c r="C96" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>198</v>
       </c>
@@ -2780,8 +2861,11 @@
       <c r="C97" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>201</v>
       </c>
@@ -2791,8 +2875,11 @@
       <c r="C98" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>204</v>
       </c>
@@ -2802,8 +2889,11 @@
       <c r="C99" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>205</v>
       </c>
@@ -2814,7 +2904,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>208</v>
       </c>
@@ -2825,7 +2915,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="102" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>209</v>
       </c>
@@ -2836,7 +2926,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>212</v>
       </c>
@@ -2847,7 +2937,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>213</v>
       </c>
@@ -2858,7 +2948,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="105" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>216</v>
       </c>
@@ -2869,7 +2959,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>217</v>
       </c>
@@ -2880,7 +2970,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="107" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>220</v>
       </c>
@@ -2891,7 +2981,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>221</v>
       </c>
@@ -2902,7 +2992,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>222</v>
       </c>
@@ -2913,7 +3003,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>225</v>
       </c>
@@ -2924,7 +3014,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>227</v>
       </c>
@@ -2935,7 +3025,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>228</v>
       </c>
@@ -2946,7 +3036,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>229</v>
       </c>
@@ -2957,7 +3047,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="114" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>232</v>
       </c>
@@ -2968,7 +3058,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="115" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>233</v>
       </c>
@@ -2979,7 +3069,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>236</v>
       </c>
@@ -2990,7 +3080,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="117" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>237</v>
       </c>
@@ -3001,7 +3091,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>238</v>
       </c>
@@ -3012,7 +3102,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>241</v>
       </c>
@@ -3023,7 +3113,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>242</v>
       </c>
@@ -3034,7 +3124,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>243</v>
       </c>
@@ -3045,7 +3135,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>246</v>
       </c>
@@ -3056,7 +3146,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>247</v>
       </c>
@@ -3067,7 +3157,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="124" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>250</v>
       </c>
@@ -3078,7 +3168,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="125" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>251</v>
       </c>
@@ -3089,7 +3179,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>254</v>
       </c>
@@ -3100,7 +3190,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="127" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>255</v>
       </c>
@@ -3110,8 +3200,11 @@
       <c r="C127" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D127" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>258</v>
       </c>
@@ -3121,8 +3214,11 @@
       <c r="C128" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D128" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>259</v>
       </c>
@@ -3132,8 +3228,11 @@
       <c r="C129" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D129" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>260</v>
       </c>
@@ -3143,8 +3242,11 @@
       <c r="C130" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D130" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>263</v>
       </c>
@@ -3154,8 +3256,11 @@
       <c r="C131" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D131" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>264</v>
       </c>
@@ -3165,8 +3270,11 @@
       <c r="C132" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D132" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>265</v>
       </c>
@@ -3176,8 +3284,11 @@
       <c r="C133" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D133" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -3187,8 +3298,11 @@
       <c r="C134" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D134" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>267</v>
       </c>
@@ -3199,7 +3313,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>268</v>
       </c>
@@ -3210,7 +3324,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>269</v>
       </c>
@@ -3221,7 +3335,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>270</v>
       </c>
@@ -3232,7 +3346,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="139" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>273</v>
       </c>
@@ -3243,7 +3357,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="140" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>274</v>
       </c>
@@ -3253,8 +3367,11 @@
       <c r="C140" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D140" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>277</v>
       </c>
@@ -3264,8 +3381,11 @@
       <c r="C141" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D141" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>278</v>
       </c>
@@ -3275,8 +3395,11 @@
       <c r="C142" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D142" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>280</v>
       </c>
@@ -3286,8 +3409,11 @@
       <c r="C143" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D143" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>281</v>
       </c>
@@ -3296,6 +3422,9 @@
       </c>
       <c r="C144" s="1" t="s">
         <v>276</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="145" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/Due Slips/receipt language.xlsx
+++ b/Due Slips/receipt language.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="291">
   <si>
     <t>name</t>
   </si>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,7 +1950,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -2026,8 +2026,11 @@
       <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -2037,8 +2040,11 @@
       <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
@@ -2048,8 +2054,11 @@
       <c r="C25" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -2059,8 +2068,11 @@
       <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -2070,8 +2082,11 @@
       <c r="C27" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -2081,8 +2096,11 @@
       <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -2093,7 +2111,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -2104,7 +2122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -2115,7 +2133,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
@@ -2174,6 +2192,9 @@
       <c r="C37" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D37" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2182,6 +2203,9 @@
       <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="D38" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -2193,6 +2217,9 @@
       <c r="C39" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="D39" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -2204,6 +2231,9 @@
       <c r="C40" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="D40" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -2215,6 +2245,9 @@
       <c r="C41" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="D41" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2226,6 +2259,9 @@
       <c r="C42" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="D42" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -2237,6 +2273,9 @@
       <c r="C43" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="D43" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -2304,8 +2343,11 @@
       <c r="C48" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>106</v>
       </c>
@@ -2315,8 +2357,11 @@
       <c r="C49" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>107</v>
       </c>
@@ -2326,8 +2371,11 @@
       <c r="C50" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>109</v>
       </c>
@@ -2337,8 +2385,11 @@
       <c r="C51" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
@@ -2348,8 +2399,11 @@
       <c r="C52" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>113</v>
       </c>
@@ -2359,8 +2413,11 @@
       <c r="C53" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>116</v>
       </c>
@@ -2370,8 +2427,11 @@
       <c r="C54" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>117</v>
       </c>
@@ -2381,8 +2441,11 @@
       <c r="C55" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>118</v>
       </c>
@@ -2392,8 +2455,11 @@
       <c r="C56" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
@@ -2403,8 +2469,11 @@
       <c r="C57" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>122</v>
       </c>
@@ -2414,8 +2483,11 @@
       <c r="C58" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>123</v>
       </c>
@@ -2425,8 +2497,11 @@
       <c r="C59" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>124</v>
       </c>
@@ -2436,8 +2511,11 @@
       <c r="C60" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
@@ -2447,8 +2525,11 @@
       <c r="C61" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>128</v>
       </c>
@@ -2458,8 +2539,11 @@
       <c r="C62" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>131</v>
       </c>
@@ -2469,8 +2553,11 @@
       <c r="C63" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>132</v>
       </c>
@@ -2479,6 +2566,9 @@
       </c>
       <c r="C64" s="1" t="s">
         <v>130</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2491,6 +2581,9 @@
       <c r="C65" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D65" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -2502,6 +2595,9 @@
       <c r="C66" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D66" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -2513,6 +2609,9 @@
       <c r="C67" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="D67" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -2524,6 +2623,9 @@
       <c r="C68" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="D68" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -2535,6 +2637,9 @@
       <c r="C69" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="D69" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -2588,6 +2693,9 @@
       <c r="C73" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="D73" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -2599,6 +2707,9 @@
       <c r="C74" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="D74" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -2610,6 +2721,9 @@
       <c r="C75" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="D75" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -2621,6 +2735,9 @@
       <c r="C76" s="1" t="s">
         <v>153</v>
       </c>
+      <c r="D76" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -2632,6 +2749,9 @@
       <c r="C77" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="D77" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -2643,6 +2763,9 @@
       <c r="C78" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="D78" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -2654,6 +2777,9 @@
       <c r="C79" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="D79" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -2665,6 +2791,9 @@
       <c r="C80" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="D80" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -2676,6 +2805,9 @@
       <c r="C81" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="D81" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2687,6 +2819,9 @@
       <c r="C82" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="D82" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -2698,6 +2833,9 @@
       <c r="C83" s="1" t="s">
         <v>168</v>
       </c>
+      <c r="D83" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -2709,6 +2847,9 @@
       <c r="C84" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="D84" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="85" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -2720,6 +2861,9 @@
       <c r="C85" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="D85" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -2731,6 +2875,9 @@
       <c r="C86" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="D86" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -2742,6 +2889,9 @@
       <c r="C87" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="D87" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -2753,6 +2903,9 @@
       <c r="C88" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="D88" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -2764,6 +2917,9 @@
       <c r="C89" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="D89" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="90" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -2775,6 +2931,9 @@
       <c r="C90" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="D90" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="91" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -2786,6 +2945,9 @@
       <c r="C91" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="D91" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="92" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2797,6 +2959,9 @@
       <c r="C92" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="D92" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="93" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -2808,6 +2973,9 @@
       <c r="C93" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="D93" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="94" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -2903,6 +3071,9 @@
       <c r="C100" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="D100" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="101" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2914,6 +3085,9 @@
       <c r="C101" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="D101" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2925,6 +3099,9 @@
       <c r="C102" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="D102" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="103" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -2936,6 +3113,9 @@
       <c r="C103" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="D103" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="104" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -2947,6 +3127,9 @@
       <c r="C104" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="D104" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="105" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -2958,6 +3141,9 @@
       <c r="C105" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="D105" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="106" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -2969,6 +3155,9 @@
       <c r="C106" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="D106" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="107" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -2980,6 +3169,9 @@
       <c r="C107" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="D107" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="108" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -2991,6 +3183,9 @@
       <c r="C108" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="D108" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="109" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -3002,6 +3197,9 @@
       <c r="C109" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="D109" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="110" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -3013,6 +3211,9 @@
       <c r="C110" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="D110" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="111" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -3024,6 +3225,9 @@
       <c r="C111" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="D111" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="112" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -3035,6 +3239,9 @@
       <c r="C112" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="D112" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="113" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -3046,6 +3253,9 @@
       <c r="C113" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="D113" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="114" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -3057,6 +3267,9 @@
       <c r="C114" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="D114" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="115" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -3068,6 +3281,9 @@
       <c r="C115" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="D115" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="116" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -3079,6 +3295,9 @@
       <c r="C116" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="D116" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="117" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -3090,6 +3309,9 @@
       <c r="C117" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="D117" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="118" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -3101,6 +3323,9 @@
       <c r="C118" s="2" t="s">
         <v>240</v>
       </c>
+      <c r="D118" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="119" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -3112,6 +3337,9 @@
       <c r="C119" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="D119" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="120" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -3123,6 +3351,9 @@
       <c r="C120" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="D120" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="121" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -3134,6 +3365,9 @@
       <c r="C121" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="D121" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="122" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -3145,6 +3379,9 @@
       <c r="C122" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="D122" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="123" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -3156,6 +3393,9 @@
       <c r="C123" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="D123" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="124" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -3167,6 +3407,9 @@
       <c r="C124" s="1" t="s">
         <v>249</v>
       </c>
+      <c r="D124" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="125" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -3178,6 +3421,9 @@
       <c r="C125" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="D125" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="126" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -3189,6 +3435,9 @@
       <c r="C126" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="D126" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="127" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -3312,6 +3561,9 @@
       <c r="C135" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="D135" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="136" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -3323,6 +3575,9 @@
       <c r="C136" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="D136" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="137" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -3334,6 +3589,9 @@
       <c r="C137" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="D137" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="138" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -3345,6 +3603,9 @@
       <c r="C138" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="D138" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="139" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -3356,6 +3617,9 @@
       <c r="C139" s="1" t="s">
         <v>272</v>
       </c>
+      <c r="D139" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="140" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -3427,7 +3691,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>282</v>
       </c>
@@ -3437,8 +3701,11 @@
       <c r="C145" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D145" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>285</v>
       </c>
@@ -3448,8 +3715,11 @@
       <c r="C146" s="1" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D146" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>286</v>
       </c>
@@ -3458,6 +3728,9 @@
       </c>
       <c r="C147" s="1" t="s">
         <v>288</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
